--- a/ny-dagsrapport.xlsx
+++ b/ny-dagsrapport.xlsx
@@ -9,7 +9,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="11" xml:space="preserve">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="14" xml:space="preserve">
   <si>
     <t>Dagsrapport</t>
   </si>
@@ -32,16 +32,25 @@
     <t>Kunde:</t>
   </si>
   <si>
+    <t>Martin</t>
+  </si>
+  <si>
     <t>Dato:</t>
   </si>
   <si>
     <t>Sum timer pr. pers:</t>
   </si>
   <si>
+    <t>Sum timer totalt:</t>
+  </si>
+  <si>
     <t>Attest</t>
   </si>
   <si>
     <t>……………</t>
+  </si>
+  <si>
+    <t>BRUKTE MATERIALER</t>
   </si>
 </sst>
 </file>
@@ -52,7 +61,7 @@
     <numFmt numFmtId="100" formatCode="yyyy/mm/dd"/>
     <numFmt numFmtId="101" formatCode="yyyy/mm/dd hh:mm:ss"/>
   </numFmts>
-  <fonts count="13">
+  <fonts count="9">
     <font>
       <name val="Arial"/>
       <sz val="11"/>
@@ -82,6 +91,12 @@
       <sz val="11"/>
       <family val="1"/>
       <b val="true"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="11"/>
+      <family val="1"/>
+      <b val="true"/>
       <i val="true"/>
     </font>
     <font>
@@ -98,43 +113,11 @@
     </font>
     <font>
       <name val="Arial"/>
-      <sz val="11"/>
-      <family val="1"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Arial"/>
-      <sz val="11"/>
-      <family val="1"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Arial"/>
-      <sz val="11"/>
-      <family val="1"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Arial"/>
-      <sz val="11"/>
-      <family val="1"/>
-      <b val="true"/>
-      <i val="true"/>
-    </font>
-    <font>
-      <name val="Arial"/>
-      <sz val="11"/>
-      <family val="1"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Arial"/>
-      <sz val="11"/>
-      <family val="1"/>
-      <b val="true"/>
+      <sz val="20"/>
+      <family val="1"/>
     </font>
   </fonts>
-  <fills count="10">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -154,21 +137,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFC0C0C0"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFDFDEDF"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFDFDEDF"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFDFDEDF"/>
       </patternFill>
     </fill>
     <fill>
@@ -202,7 +170,7 @@
   <cellStyleXfs count="1">
     <xf borderId="0" numFmtId="0" fontId="0" fillId="0"/>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="12">
     <xf borderId="0" numFmtId="0" fontId="0" fillId="0" xfId="0"/>
     <xf borderId="1" numFmtId="0" fontId="0" fillId="0" xfId="0"/>
     <xf borderId="0" numFmtId="14" fontId="0" fillId="0" xfId="0" applyNumberFormat="1"/>
@@ -213,27 +181,16 @@
       <alignment horizontal="center"/>
     </xf>
     <xf borderId="0" numFmtId="0" fontId="3" fillId="4" applyNumberFormat="false" applyFill="true" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf borderId="0" numFmtId="0" fontId="4" fillId="0" applyNumberFormat="false" applyFill="false" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center"/>
+    <xf borderId="0" numFmtId="0" fontId="4" fillId="5" applyNumberFormat="false" applyFill="true" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf borderId="0" numFmtId="0" fontId="5" fillId="0" applyNumberFormat="false" applyFill="false" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf borderId="0" numFmtId="0" fontId="6" fillId="0" applyNumberFormat="false" applyFill="false" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf borderId="0" numFmtId="0" fontId="7" fillId="6" applyNumberFormat="false" applyFill="true" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf borderId="0" numFmtId="0" fontId="0" fillId="0" applyNumberFormat="false" applyFill="false" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="right"/>
     </xf>
-    <xf borderId="0" numFmtId="0" fontId="5" fillId="0" applyNumberFormat="false" applyFill="false" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center"/>
+    <xf borderId="0" numFmtId="0" fontId="8" fillId="0" applyNumberFormat="false" applyFill="false" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="right"/>
     </xf>
-    <xf borderId="0" numFmtId="0" fontId="6" fillId="5" applyNumberFormat="false" applyFill="true" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment indent="1"/>
-    </xf>
-    <xf borderId="0" numFmtId="0" fontId="7" fillId="6" applyNumberFormat="false" applyFill="true" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf borderId="0" numFmtId="0" fontId="0" fillId="0" applyNumberFormat="false" applyFill="false" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment indent="1"/>
-    </xf>
-    <xf borderId="0" numFmtId="5" fontId="0" fillId="0" applyNumberFormat="true" applyFill="false" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf borderId="0" numFmtId="0" fontId="8" fillId="7" applyNumberFormat="false" applyFill="true" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf borderId="0" numFmtId="5" fontId="9" fillId="8" applyNumberFormat="true" applyFill="true" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf borderId="0" numFmtId="0" fontId="10" fillId="0" applyNumberFormat="false" applyFill="false" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf borderId="0" numFmtId="0" fontId="11" fillId="0" applyNumberFormat="false" applyFill="false" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf borderId="0" numFmtId="0" fontId="12" fillId="9" applyNumberFormat="false" applyFill="true" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0"/>
@@ -286,7 +243,7 @@
   <sheetPr>
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:F42"/>
+  <dimension ref="A1:B45"/>
   <sheetViews>
     <sheetView windowProtection="false" tabSelected="false" showWhiteSpace="false" showOutlineSymbols="false" showFormulas="false" rightToLeft="false" showZeros="true" showRuler="true" showRowColHeaders="true" showGridLines="true" defaultGridColor="true" zoomScale="100" workbookViewId="0" zoomScaleSheetLayoutView="0" zoomScalePageLayoutView="0" zoomScaleNormal="0"/>
   </sheetViews>
@@ -314,37 +271,43 @@
       <c r="C4" s="0"/>
     </row>
     <row r="5">
-      <c r="A5" s="14" t="s">
+      <c r="A5" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="B5" s="16"/>
-      <c r="C5" s="15" t="s">
+      <c r="B5" s="9"/>
+      <c r="C5" s="8" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="6">
-      <c r="A6" s="14" t="s">
+      <c r="A6" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="B6" s="16"/>
-      <c r="C6" s="15" t="s">
+      <c r="B6" s="9"/>
+      <c r="C6" s="8" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="7">
-      <c r="A7" s="14" t="s">
+      <c r="A7" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="B7" s="16"/>
+      <c r="B7" s="9"/>
     </row>
     <row r="8">
-      <c r="A8" s="14" t="s">
+      <c r="A8" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="B8" s="16"/>
+      <c r="B8" s="9"/>
     </row>
     <row r="9">
       <c r="A9" s="0"/>
+      <c r="B9" s="0"/>
+      <c r="C9" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="D9" s="0"/>
+      <c r="E9" s="0"/>
     </row>
     <row r="10">
       <c r="A10" s="0"/>
@@ -360,7 +323,7 @@
     </row>
     <row r="14">
       <c r="A14" s="5" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B14" s="5"/>
     </row>
@@ -441,39 +404,63 @@
     </row>
     <row r="40">
       <c r="A40" s="0"/>
-      <c r="B40" s="0" t="s">
-        <v>8</v>
-      </c>
-      <c r="C40" s="0"/>
-      <c r="D40" s="0"/>
-      <c r="E40" s="0"/>
-      <c r="F40" s="0"/>
-      <c r="G40" s="0"/>
+      <c r="B40" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="C40" s="10"/>
+      <c r="D40" s="10"/>
+      <c r="E40" s="10"/>
+      <c r="F40" s="10"/>
+      <c r="G40" s="10"/>
     </row>
     <row r="41">
       <c r="A41" s="0"/>
+      <c r="B41" s="10" t="s">
+        <v>10</v>
+      </c>
+      <c r="C41" s="0"/>
+      <c r="D41" s="0"/>
+      <c r="E41" s="0"/>
+      <c r="F41" s="0"/>
+      <c r="G41" s="0"/>
     </row>
     <row r="42">
       <c r="A42" s="0"/>
-      <c r="B42" s="0" t="s">
-        <v>9</v>
-      </c>
-      <c r="C42" s="0" t="s">
-        <v>10</v>
-      </c>
-      <c r="D42" s="0" t="s">
-        <v>10</v>
-      </c>
-      <c r="E42" s="0" t="s">
-        <v>10</v>
-      </c>
-      <c r="F42" s="0" t="s">
-        <v>10</v>
+    </row>
+    <row r="43">
+      <c r="A43" s="0"/>
+      <c r="B43" s="11" t="s">
+        <v>11</v>
+      </c>
+      <c r="C43" s="0" t="s">
+        <v>12</v>
+      </c>
+      <c r="D43" s="0" t="s">
+        <v>12</v>
+      </c>
+      <c r="E43" s="0" t="s">
+        <v>12</v>
+      </c>
+      <c r="F43" s="0" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="0"/>
+    </row>
+    <row r="45">
+      <c r="A45" s="0"/>
+      <c r="B45" s="0" t="s">
+        <v>13</v>
       </c>
     </row>
   </sheetData>
   <sheetCalcPr fullCalcOnLoad="true"/>
-  <mergeCells count="1">
+  <mergeCells count="5">
+    <mergeCell ref="C9:C13"/>
+    <mergeCell ref="D9:D13"/>
+    <mergeCell ref="E9:E13"/>
+    <mergeCell ref="F9:F13"/>
     <mergeCell ref="A2:G2"/>
   </mergeCells>
   <printOptions verticalCentered="false" horizontalCentered="false" headings="false" gridLines="false"/>
